--- a/Experiment2_Data.xlsx
+++ b/Experiment2_Data.xlsx
@@ -5,38 +5,81 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evely\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evely\Documents\GitHub\CISC471FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7770D725-7230-4824-8F80-6A23B208007D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBFE4D8-C58E-4230-B1B5-170739B1ED1D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13164" yWindow="2424" windowWidth="17280" windowHeight="8964" xr2:uid="{438376C7-CA43-4D36-AD7F-D4BAA591C8B3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{438376C7-CA43-4D36-AD7F-D4BAA591C8B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Population" sheetId="1" r:id="rId1"/>
     <sheet name="Generations" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Population!$A$21</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Population!$A$22</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Population!$B$24:$G$24</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Population!$B$25:$G$25</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Population!$B$26:$G$26</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Population!$A$10:$G$10</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Population!$A$12:$G$12</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Population!$A$13:$G$13</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Population!$A$14:$G$14</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Population!$A$15:$G$15</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Population!$A$16:$G$16</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Population!$A$17:$G$17</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Population!$A$23</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Population!$A$24</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Population!$A$25</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Population!$A$26</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Population!$B$20:$G$20</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Population!$B$21:$G$21</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Population!$B$22:$G$22</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Population!$B$23:$G$23</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Generations!$A$10</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Generations!$A$11</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Generations!$B$10:$K$10</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Generations!$B$11:$K$11</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Generations!$B$1:$K$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Generations!$B$2:$K$2</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Generations!$B$3:$K$3</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Generations!$B$4:$K$4</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Generations!$B$5:$K$5</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Generations!$B$6:$K$6</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Generations!$B$7:$K$7</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Generations!$B$8:$K$8</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Generations!$A$2</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Generations!$B$9:$K$9</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Generations!$A$10</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Generations!$A$11</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Generations!$A$2</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Generations!$A$3</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Generations!$A$4</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Generations!$A$5</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">Generations!$A$6</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">Generations!$A$7</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">Generations!$A$8</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Generations!$A$3</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">Generations!$A$9</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">Generations!$B$10:$K$10</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">Generations!$B$11:$K$11</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">Generations!$B$1:$K$1</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">Generations!$B$2:$K$2</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">Generations!$B$3:$K$3</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">Generations!$B$4:$K$4</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">Generations!$B$5:$K$5</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">Generations!$B$6:$K$6</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">Generations!$B$7:$K$7</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Generations!$A$4</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">Generations!$B$8:$K$8</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">Generations!$B$9:$K$9</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">Generations!$A$10</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">Generations!$A$11</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">Generations!$A$2</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">Generations!$A$3</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">Generations!$A$4</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">Generations!$A$5</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">Generations!$A$6</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">Generations!$A$7</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Generations!$A$5</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">Generations!$A$8</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">Generations!$A$9</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">Generations!$B$10:$K$10</definedName>
+    <definedName name="_xlchart.v1.53" hidden="1">Generations!$B$11:$K$11</definedName>
+    <definedName name="_xlchart.v1.54" hidden="1">Generations!$B$1:$K$1</definedName>
+    <definedName name="_xlchart.v1.55" hidden="1">Generations!$B$2:$K$2</definedName>
+    <definedName name="_xlchart.v1.56" hidden="1">Generations!$B$3:$K$3</definedName>
+    <definedName name="_xlchart.v1.57" hidden="1">Generations!$B$4:$K$4</definedName>
+    <definedName name="_xlchart.v1.58" hidden="1">Generations!$B$5:$K$5</definedName>
+    <definedName name="_xlchart.v1.59" hidden="1">Generations!$B$6:$K$6</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Generations!$A$6</definedName>
+    <definedName name="_xlchart.v1.60" hidden="1">Generations!$B$7:$K$7</definedName>
+    <definedName name="_xlchart.v1.61" hidden="1">Generations!$B$8:$K$8</definedName>
+    <definedName name="_xlchart.v1.62" hidden="1">Generations!$B$9:$K$9</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Generations!$A$7</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Generations!$A$8</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Generations!$A$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>Generation 1</t>
   </si>
@@ -73,15 +116,60 @@
   <si>
     <t>the less likely the gene will be lost</t>
   </si>
+  <si>
+    <t>Generation 4</t>
+  </si>
+  <si>
+    <t>Generation 5</t>
+  </si>
+  <si>
+    <t>Generation 6</t>
+  </si>
+  <si>
+    <t>Generation 7</t>
+  </si>
+  <si>
+    <t>Generation 8</t>
+  </si>
+  <si>
+    <t>Generation 9</t>
+  </si>
+  <si>
+    <t>Generation 10</t>
+  </si>
+  <si>
+    <t>5 individuals</t>
+  </si>
+  <si>
+    <t>10 individuals</t>
+  </si>
+  <si>
+    <t>20 individuals</t>
+  </si>
+  <si>
+    <t>40 individuals</t>
+  </si>
+  <si>
+    <t>80 individuals</t>
+  </si>
+  <si>
+    <t>160 individuals</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -215,7 +303,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>5 individuals</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -234,7 +322,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Population!$B$2:$G$2</c:f>
+              <c:f>Population!$J$2:$O$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -261,7 +349,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Population!$B$3:$G$3</c:f>
+              <c:f>Population!$J$3:$O$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -269,19 +357,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.45757491</c:v>
+                  <c:v>0.45757491</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.96910012999999995</c:v>
+                  <c:v>0.96910012999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.5490196000000001</c:v>
+                  <c:v>1.5490196000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2.2184875000000002</c:v>
+                  <c:v>2.2184875000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-3.0102999600000002</c:v>
+                  <c:v>3.0102999600000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -302,7 +390,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>10 individuals</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -321,7 +409,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Population!$B$2:$G$2</c:f>
+              <c:f>Population!$J$2:$O$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -348,7 +436,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Population!$B$4:$G$4</c:f>
+              <c:f>Population!$J$4:$O$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -356,19 +444,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.44552788999999998</c:v>
+                  <c:v>0.44552788999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.91514980999999995</c:v>
+                  <c:v>0.91514980999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.4116214899999999</c:v>
+                  <c:v>1.4116214899999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.9382002599999999</c:v>
+                  <c:v>1.9382002599999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-2.4987747300000001</c:v>
+                  <c:v>2.4987747300000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -389,7 +477,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>20 individuals</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -408,7 +496,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Population!$B$2:$G$2</c:f>
+              <c:f>Population!$J$2:$O$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -435,7 +523,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Population!$B$5:$G$5</c:f>
+              <c:f>Population!$J$5:$O$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -443,19 +531,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.43981536999999998</c:v>
+                  <c:v>0.43981536999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.89105579000000001</c:v>
+                  <c:v>0.89105579000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.3543306900000001</c:v>
+                  <c:v>1.3543306900000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.8302996199999999</c:v>
+                  <c:v>1.8302996199999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-2.31967788</c:v>
+                  <c:v>2.31967788</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -476,7 +564,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>40 individuals</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -495,7 +583,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Population!$B$2:$G$2</c:f>
+              <c:f>Population!$J$2:$O$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -522,7 +610,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Population!$B$6:$G$6</c:f>
+              <c:f>Population!$J$6:$O$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -530,19 +618,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.43703165999999999</c:v>
+                  <c:v>0.43703165999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.87963073999999997</c:v>
+                  <c:v>0.87963073999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.3279409499999999</c:v>
+                  <c:v>1.3279409499999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.78211158</c:v>
+                  <c:v>1.78211158</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-2.2422978900000001</c:v>
+                  <c:v>2.2422978900000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -563,7 +651,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>80</c:v>
+                  <c:v>80 individuals</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -582,7 +670,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Population!$B$2:$G$2</c:f>
+              <c:f>Population!$J$2:$O$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -609,7 +697,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Population!$B$7:$G$7</c:f>
+              <c:f>Population!$J$7:$O$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -617,19 +705,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.43565733000000001</c:v>
+                  <c:v>0.43565733000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.87406331000000004</c:v>
+                  <c:v>0.87406331000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.3152528400000001</c:v>
+                  <c:v>1.3152528400000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.7592614900000001</c:v>
+                  <c:v>1.7592614900000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-2.2061255200000001</c:v>
+                  <c:v>2.2061255200000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -650,7 +738,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>160</c:v>
+                  <c:v>160 individuals</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -669,7 +757,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Population!$B$2:$G$2</c:f>
+              <c:f>Population!$J$2:$O$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -696,7 +784,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Population!$B$8:$G$8</c:f>
+              <c:f>Population!$J$8:$O$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -704,19 +792,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.43497448</c:v>
+                  <c:v>0.43497448</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.87131466999999996</c:v>
+                  <c:v>0.87131466999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.30902915</c:v>
+                  <c:v>1.30902915</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.7481266200000001</c:v>
+                  <c:v>1.7481266200000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-2.1886158500000001</c:v>
+                  <c:v>2.1886158500000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -772,7 +860,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-CA" baseline="0"/>
-                  <a:t> of Resessive Alleles</a:t>
+                  <a:t> of Recessive Alleles</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-CA"/>
               </a:p>
@@ -897,7 +985,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-CA" baseline="0"/>
-                  <a:t> a Ressesive Allele Surives</a:t>
+                  <a:t> a Ressesive Allele Surives (|log10|)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-CA"/>
               </a:p>
@@ -966,6 +1054,7 @@
         <c:crossAx val="853378096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="0.30000000000000004"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1085,818 +1174,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-CA"/>
-              <a:t>Probability of a</a:t>
+              <a:t>Probability a</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-CA" baseline="0"/>
-              <a:t> Resessive </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-CA"/>
-              <a:t>Allele Suriving after Two Generations</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Population!$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Population!$B$11:$G$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Population!$B$12:$G$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.29563211</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.62043397</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.98138417</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1.3884400800000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-1.8565782900000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F871-44B8-8496-D4AAF7A0BBE6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Population!$A$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Population!$B$11:$G$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Population!$B$13:$G$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.28468960999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.58234094999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.89428859999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1.22209229</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-1.5675917800000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F871-44B8-8496-D4AAF7A0BBE6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Population!$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Population!$B$11:$G$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Population!$B$14:$G$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.27951606000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.56516135000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.85723108999999997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1.1560431</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-1.46194015</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F871-44B8-8496-D4AAF7A0BBE6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Population!$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>40</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Population!$B$11:$G$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Population!$B$15:$G$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.27699889999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.55698027999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.84001373999999995</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1.1261714199999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-1.4155281200000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-F871-44B8-8496-D4AAF7A0BBE6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Population!$A$16</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>80</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Population!$B$11:$G$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Population!$B$16:$G$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.27575717</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.55298572000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.83170253999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1.11192486</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-1.39367017</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-F871-44B8-8496-D4AAF7A0BBE6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Population!$A$17</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>160</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Population!$B$11:$G$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Population!$B$17:$G$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.27514044999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.55101171000000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.82761792999999995</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1.10496332</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-1.3830521200000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-F871-44B8-8496-D4AAF7A0BBE6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="853382672"/>
-        <c:axId val="853372272"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="853382672"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="853372272"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="853372272"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="853382672"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-CA"/>
-              <a:t>Probability of</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-CA" baseline="0"/>
-              <a:t> a Ressessive Allele Surving after Three Generations</a:t>
+              <a:t> Ressesive Allele Will Persist Over 10 Generations</a:t>
             </a:r>
             <a:endParaRPr lang="en-CA"/>
           </a:p>
@@ -1942,11 +1224,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Population!$A$21</c:f>
+              <c:f>Generations!$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>Generation 1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1965,10 +1247,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Population!$B$20:$G$20</c:f>
+              <c:f>Generations!$B$15:$K$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1986,33 +1268,57 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Population!$B$21:$G$21</c:f>
+              <c:f>Generations!$B$16:$K$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.22351583</c:v>
+                  <c:v>0.45757491</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.46769705</c:v>
+                  <c:v>0.96910012999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.73730863999999996</c:v>
+                  <c:v>1.5490196000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.0390960499999999</c:v>
+                  <c:v>2.2184875000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.38311268</c:v>
+                  <c:v>3.0102999600000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.9794000899999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.2287874499999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.9897000399999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.9999999600000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2020,7 +1326,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-914F-4DD6-87F7-4931E3F48A68}"/>
+              <c16:uniqueId val="{00000000-D6F1-4D02-B399-CA676E694B9E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2029,11 +1335,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Population!$A$22</c:f>
+              <c:f>Generations!$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>Generation 2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2052,10 +1358,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Population!$B$20:$G$20</c:f>
+              <c:f>Generations!$B$15:$K$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2073,33 +1379,57 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Population!$B$22:$G$22</c:f>
+              <c:f>Generations!$B$17:$K$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.21309175999999999</c:v>
+                  <c:v>0.29563211</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.43526210999999998</c:v>
+                  <c:v>0.62043397</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.66741209000000001</c:v>
+                  <c:v>0.98138417</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.91059089000000004</c:v>
+                  <c:v>1.3884400800000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.16603127</c:v>
+                  <c:v>1.8565782900000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4100005100000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0921020399999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.99478059</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.3867099400000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2107,7 +1437,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-914F-4DD6-87F7-4931E3F48A68}"/>
+              <c16:uniqueId val="{00000001-D6F1-4D02-B399-CA676E694B9E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2116,11 +1446,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Population!$A$23</c:f>
+              <c:f>Generations!$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>Generation 3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2139,10 +1469,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Population!$B$20:$G$20</c:f>
+              <c:f>Generations!$B$15:$K$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2160,33 +1490,57 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Population!$B$23:$G$23</c:f>
+              <c:f>Generations!$B$18:$K$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.20819146999999999</c:v>
+                  <c:v>0.22351583</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.42065243000000002</c:v>
+                  <c:v>0.46769705</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.63758113999999999</c:v>
+                  <c:v>0.73730863999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.85919060000000003</c:v>
+                  <c:v>1.0390960499999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.08571018</c:v>
+                  <c:v>1.38311268</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7854295899999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.27448199</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9094476199999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.8589176200000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2194,7 +1548,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-914F-4DD6-87F7-4931E3F48A68}"/>
+              <c16:uniqueId val="{00000002-D6F1-4D02-B399-CA676E694B9E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2203,11 +1557,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Population!$A$24</c:f>
+              <c:f>Generations!$A$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>Generation 4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2226,10 +1580,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Population!$B$20:$G$20</c:f>
+              <c:f>Generations!$B$15:$K$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2247,33 +1601,57 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Population!$B$24:$G$24</c:f>
+              <c:f>Generations!$B$19:$K$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.20581388</c:v>
+                  <c:v>0.18189306999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.41369969000000001</c:v>
+                  <c:v>0.38008162000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.62370404000000002</c:v>
+                  <c:v>0.59826276</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.83587520999999998</c:v>
+                  <c:v>0.84165336999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.05026321</c:v>
+                  <c:v>1.1179998799999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4396319</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.82824991</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3287076199999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.0674630700000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2281,7 +1659,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-914F-4DD6-87F7-4931E3F48A68}"/>
+              <c16:uniqueId val="{00000003-D6F1-4D02-B399-CA676E694B9E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2290,11 +1668,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Population!$A$25</c:f>
+              <c:f>Generations!$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>80</c:v>
+                  <c:v>Generation 5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2313,10 +1691,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Population!$B$20:$G$20</c:f>
+              <c:f>Generations!$B$15:$K$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2334,33 +1712,57 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Population!$B$25:$G$25</c:f>
+              <c:f>Generations!$B$20:$K$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.20464260000000001</c:v>
+                  <c:v>0.15461141</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.41030599000000001</c:v>
+                  <c:v>0.32284437999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.61700149999999998</c:v>
+                  <c:v>0.50776710999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.82474060999999999</c:v>
+                  <c:v>0.71370367000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.0335350400000001</c:v>
+                  <c:v>0.94706641000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.21804684</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5445546699999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9635548199999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5793916700000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2368,7 +1770,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-914F-4DD6-87F7-4931E3F48A68}"/>
+              <c16:uniqueId val="{00000004-D6F1-4D02-B399-CA676E694B9E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2377,11 +1779,11 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Population!$A$26</c:f>
+              <c:f>Generations!$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>160</c:v>
+                  <c:v>Generation 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2400,10 +1802,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Population!$B$20:$G$20</c:f>
+              <c:f>Generations!$B$15:$K$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2421,33 +1823,57 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Population!$B$26:$G$26</c:f>
+              <c:f>Generations!$B$21:$K$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.20406125999999999</c:v>
+                  <c:v>0.13529480999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.40862920000000003</c:v>
+                  <c:v>0.28240516999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.61370659000000005</c:v>
+                  <c:v>0.44398602999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.81929624999999995</c:v>
+                  <c:v>0.62377886000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.0254010099999999</c:v>
+                  <c:v>0.82733232999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0634687</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.34770938</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.71220127</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2488524299999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2455,7 +1881,459 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-914F-4DD6-87F7-4931E3F48A68}"/>
+              <c16:uniqueId val="{00000005-D6F1-4D02-B399-CA676E694B9E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Generations!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Generation 7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Generations!$B$15:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Generations!$B$22:$K$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12088543</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25228657999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.39656785999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.55706365000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.73872457000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.94943732000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2031284</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.52886758</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0113734399999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-D6F1-4D02-B399-CA676E694B9E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Generations!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Generation 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Generations!$B$15:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Generations!$B$23:$K$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10972389</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.22898600999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35993712999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.50561469000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.67053812000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.86193187000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.09262741</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.38969221</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8336132199999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-D6F1-4D02-B399-CA676E694B9E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Generations!$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Generation 9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Generations!$B$15:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Generations!$B$24:$K$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10082848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21043648000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33081311000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.46477344999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.61651900999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.79279727</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0056789900000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2809174299999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6964688699999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-D6F1-4D02-B399-CA676E694B9E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Generations!$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Generation 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Generations!$B$15:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Generations!$B$25:$K$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.3579949999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1953368</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30713517000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.43162123000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.57275962000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.73695195000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.93573814</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1940042799999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5881695499999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-D6F1-4D02-B399-CA676E694B9E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2468,16 +2346,71 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="919408848"/>
-        <c:axId val="919410096"/>
+        <c:axId val="1810961520"/>
+        <c:axId val="1810952784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="919408848"/>
+        <c:axId val="1810961520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Number of Resessive Alleles</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2515,7 +2448,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="919410096"/>
+        <c:crossAx val="1810952784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2523,7 +2456,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="919410096"/>
+        <c:axId val="1810952784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2543,6 +2476,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Probability A Resessive Allele</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" baseline="0"/>
+                  <a:t> is Lost (|log10|)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2574,1436 +2567,11 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="919408848"/>
+        <c:crossAx val="1810961520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="0.5"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
-      <c:depthPercent val="100"/>
-      <c:rAngAx val="1"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:backWall>
-    <c:plotArea>
-      <c:layout/>
-      <c:bar3DChart>
-        <c:barDir val="col"/>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Generations!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Generations!$B$1:$K$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Generations!$B$2:$K$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.45757491</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.96910012999999995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-1.5490196000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-2.2184875000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-3.0102999600000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-3.9794000899999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-5.2287874499999996</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-6.9897000399999998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-9.9999999600000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-63EE-4BAC-AA26-F8B313C1F03E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Generations!$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Generations!$B$1:$K$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Generations!$B$3:$K$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.29563211</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.62043397</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.98138417</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1.3884400800000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-1.8565782900000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-2.4100005100000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-3.0921020399999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-3.99478059</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-5.3867099400000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-63EE-4BAC-AA26-F8B313C1F03E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Generations!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Generations!$B$1:$K$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Generations!$B$4:$K$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.22351583</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.46769705</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.73730863999999996</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1.0390960499999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-1.38311268</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-1.7854295899999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-2.27448199</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-2.9094476199999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-3.8589176200000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-63EE-4BAC-AA26-F8B313C1F03E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Generations!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Generations!$B$1:$K$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Generations!$B$5:$K$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.18189306999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.38008162000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.59826276</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.84165336999999996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-1.1179998799999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-1.4396319</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-1.82824991</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-2.3287076199999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-3.0674630700000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-63EE-4BAC-AA26-F8B313C1F03E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Generations!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Generations!$B$1:$K$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Generations!$B$6:$K$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.15461141</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.32284437999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.50776710999999997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.71370367000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.94706641000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-1.21804684</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-1.5445546699999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-1.9635548199999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-2.5793916700000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-63EE-4BAC-AA26-F8B313C1F03E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Generations!$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Generations!$B$1:$K$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Generations!$B$7:$K$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.13529480999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.28240516999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.44398602999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.62377886000000005</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.82733232999999995</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-1.0634687</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-1.34770938</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-1.71220127</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-2.2488524299999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-63EE-4BAC-AA26-F8B313C1F03E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Generations!$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Generations!$B$1:$K$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Generations!$B$8:$K$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.12088543</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.25228657999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.39656785999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.55706365000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.73872457000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.94943732000000003</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-1.2031284</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-1.52886758</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-2.0113734399999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-63EE-4BAC-AA26-F8B313C1F03E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Generations!$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Generations!$B$1:$K$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Generations!$B$9:$K$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.10972389</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.22898600999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.35993712999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.50561469000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.67053812000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.86193187000000004</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-1.09262741</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-1.38969221</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-1.8336132199999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-63EE-4BAC-AA26-F8B313C1F03E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Generations!$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Generations!$B$1:$K$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Generations!$B$10:$K$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.10082848</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.21043648000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.33081311000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.46477344999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.61651900999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.79279727</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-1.0056789900000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-1.2809174299999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-1.6964688699999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-63EE-4BAC-AA26-F8B313C1F03E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Generations!$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Generations!$B$1:$K$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Generations!$B$11:$K$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-9.3579949999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.1953368</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.30713517000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.43162123000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.57275962000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.73695195000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.93573814</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-1.1940042799999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-1.5881695499999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-63EE-4BAC-AA26-F8B313C1F03E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:shape val="box"/>
-        <c:axId val="926799648"/>
-        <c:axId val="926818368"/>
-        <c:axId val="1012482688"/>
-      </c:bar3DChart>
-      <c:catAx>
-        <c:axId val="926799648"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="926818368"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="926818368"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="926799648"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:serAx>
-        <c:axId val="1012482688"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="926818368"/>
-        <c:crosses val="autoZero"/>
-      </c:serAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4167,86 +2735,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -5279,1030 +3767,20 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>255442</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>135082</xdr:rowOff>
+      <xdr:colOff>17317</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>170801</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>467590</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>34636</xdr:rowOff>
+      <xdr:colOff>229465</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>70355</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6327,78 +3805,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>238931</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>133027</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>477864</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>154982</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C82262B-E881-4169-BB1A-EFF5F8D8426D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>238932</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>16788</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>490779</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>116236</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DBC0B31-592B-4C78-8DCD-636DCC6A6303}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6406,23 +3812,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>14623</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>17403</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>20594</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>10296</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>319422</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>17402</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>28222</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>14110</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B45F4FE-2E86-488F-B363-C4C4314C1573}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEA0F146-595B-460E-878C-DBA6071FC377}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6740,10 +4146,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE559EFA-FEFE-4968-B7B7-F30783C9B6F3}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="48" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView topLeftCell="A5" zoomScale="71" workbookViewId="0">
+      <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6751,12 +4157,12 @@
     <col min="3" max="3" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>0</v>
       </c>
@@ -6775,10 +4181,28 @@
       <c r="G2">
         <v>5</v>
       </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <v>3</v>
+      </c>
+      <c r="N2">
+        <v>4</v>
+      </c>
+      <c r="O2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>5</v>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -6798,10 +4222,37 @@
       <c r="G3">
         <v>-3.0102999600000002</v>
       </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3">
+        <f>ABS(B3)</f>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:O8" si="0">ABS(C3)</f>
+        <v>0.45757491</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>0.96910012999999995</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="0"/>
+        <v>1.5490196000000001</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="0"/>
+        <v>2.2184875000000002</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="0"/>
+        <v>3.0102999600000002</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>10</v>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>13</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -6821,10 +4272,37 @@
       <c r="G4">
         <v>-2.4987747300000001</v>
       </c>
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J8" si="1">ABS(B4)</f>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>0.44552788999999998</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>0.91514980999999995</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>1.4116214899999999</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>1.9382002599999999</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>2.4987747300000001</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>20</v>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>14</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -6844,10 +4322,37 @@
       <c r="G5">
         <v>-2.31967788</v>
       </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>0.43981536999999998</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>0.89105579000000001</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>1.3543306900000001</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>1.8302996199999999</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>2.31967788</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>40</v>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>15</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -6867,10 +4372,37 @@
       <c r="G6">
         <v>-2.2422978900000001</v>
       </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>0.43703165999999999</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>0.87963073999999997</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>1.3279409499999999</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>1.78211158</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>2.2422978900000001</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>80</v>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>16</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -6890,10 +4422,37 @@
       <c r="G7">
         <v>-2.2061255200000001</v>
       </c>
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>0.43565733000000001</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>0.87406331000000004</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>1.3152528400000001</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>1.7592614900000001</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>2.2061255200000001</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>160</v>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>17</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -6913,13 +4472,40 @@
       <c r="G8">
         <v>-2.1886158500000001</v>
       </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>0.43497448</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>0.87131466999999996</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>1.30902915</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>1.7481266200000001</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>2.1886158500000001</v>
+      </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>0</v>
       </c>
@@ -6939,7 +4525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>5</v>
       </c>
@@ -6962,7 +4548,7 @@
         <v>-1.8565782900000001</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10</v>
       </c>
@@ -6985,7 +4571,7 @@
         <v>-1.5675917800000001</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>20</v>
       </c>
@@ -7008,7 +4594,7 @@
         <v>-1.46194015</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>40</v>
       </c>
@@ -7031,7 +4617,7 @@
         <v>-1.4155281200000001</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>80</v>
       </c>
@@ -7241,6 +4827,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -7248,10 +4835,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88043F97-D4FD-44F1-9EE1-F986BF82E2F3}">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView zoomScale="74" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" zoomScale="69" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7647,7 +5234,490 @@
         <v>-1.5881695499999999</v>
       </c>
     </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>6</v>
+      </c>
+      <c r="I15">
+        <v>7</v>
+      </c>
+      <c r="J15">
+        <v>8</v>
+      </c>
+      <c r="K15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <f>ABS(B2)</f>
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ref="C16:K16" si="0">ABS(C2)</f>
+        <v>0.45757491</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0.96910012999999995</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>1.5490196000000001</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>2.2184875000000002</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>3.0102999600000002</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>3.9794000899999999</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>5.2287874499999996</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>6.9897000399999998</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>9.9999999600000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ref="B17:K25" si="1">ABS(B3)</f>
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>0.29563211</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>0.62043397</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>0.98138417</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>1.3884400800000001</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>1.8565782900000001</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>2.4100005100000002</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>3.0921020399999999</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>3.99478059</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>5.3867099400000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>0.22351583</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>0.46769705</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>0.73730863999999996</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>1.0390960499999999</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>1.38311268</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>1.7854295899999999</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>2.27448199</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>2.9094476199999999</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>3.8589176200000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>0.18189306999999999</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>0.38008162000000001</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>0.59826276</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>0.84165336999999996</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>1.1179998799999999</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>1.4396319</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>1.82824991</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>2.3287076199999999</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>3.0674630700000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>0.15461141</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>0.32284437999999999</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>0.50776710999999997</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>0.71370367000000001</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>0.94706641000000003</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>1.21804684</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>1.5445546699999999</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>1.9635548199999999</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>2.5793916700000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>0.13529480999999999</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>0.28240516999999998</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>0.44398602999999998</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>0.62377886000000005</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>0.82733232999999995</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>1.0634687</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>1.34770938</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>1.71220127</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>2.2488524299999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>0.12088543</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>0.25228657999999998</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>0.39656785999999999</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>0.55706365000000002</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>0.73872457000000002</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>0.94943732000000003</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>1.2031284</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>1.52886758</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>2.0113734399999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>0.10972389</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>0.22898600999999999</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>0.35993712999999999</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>0.50561469000000003</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>0.67053812000000002</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>0.86193187000000004</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>1.09262741</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="1"/>
+        <v>1.38969221</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>1.8336132199999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>0.10082848</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>0.21043648000000001</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>0.33081311000000002</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>0.46477344999999998</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>0.61651900999999998</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>0.79279727</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>1.0056789900000001</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>1.2809174299999999</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>1.6964688699999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>9.3579949999999995E-2</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>0.1953368</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>0.30713517000000001</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>0.43162123000000002</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>0.57275962000000002</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>0.73695195000000002</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>0.93573814</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>1.1940042799999999</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>1.5881695499999999</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
